--- a/m1/u1/ejercicios/20191028/BuscarV/REPASO SI Y BUSCARV.xlsx
+++ b/m1/u1/ejercicios/20191028/BuscarV/REPASO SI Y BUSCARV.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Google Drive\Cursos\Excel\2016\BuscarV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndresRamos\Documents\poo\m1\u1\ejercicios\20191028\BuscarV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="ComponentesPC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -85,6 +85,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -152,6 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,71 +515,176 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="2" t="str">
+        <f>VLOOKUP(A5,$A$16:$D$22,2,0)</f>
+        <v>Teclado</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>VLOOKUP(A5,A$16:D$22,4,0)</f>
+        <v>Importado</v>
+      </c>
+      <c r="D5" s="2">
+        <f>VLOOKUP(A5,A$16:D$22,3,0)</f>
+        <v>35</v>
+      </c>
+      <c r="E5" s="3">
+        <f>IFERROR(VLOOKUP(C5,F$16:G$17,2,0),"No existe")</f>
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="6">
+        <f>D5-D5 * VLOOKUP(C5,F$16:G$17,2,0)</f>
+        <v>33.25</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="2" t="str">
+        <f t="shared" ref="B6:B11" si="0">VLOOKUP(A6,$A$16:$D$22,2,0)</f>
+        <v>Monitor</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" ref="C6:C11" si="1">VLOOKUP(A6,A$16:D$22,4,0)</f>
+        <v>Nacional</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:D11" si="2">VLOOKUP(A6,A$16:D$22,3,0)</f>
+        <v>127</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" ref="E6:E11" si="3">IFERROR(VLOOKUP(C6,F$16:G$17,2,0),"No existe")</f>
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" ref="F6:F11" si="4">D6-D6 * VLOOKUP(C6,F$16:G$17,2,0)</f>
+        <v>114.3</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Adaptador hdmi</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Nacional</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="4"/>
+        <v>21.6</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="B8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Mouse</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Importado</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="B9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Hub USB</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Nacional</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="4"/>
+        <v>32.4</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Monitor led</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Importado</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="4"/>
+        <v>147.25</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pendrive 3.0</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Importado</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="4"/>
+        <v>11.4</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
